--- a/Simulation Results/tau2=0.4.xlsx
+++ b/Simulation Results/tau2=0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhchy\Dropbox\2019 Spring\Meta\Code\Results\Testing\All_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FC3FDB-00F7-4AAA-965D-5F2124E0B27A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898E1DB3-45AB-4FB1-B255-177AA4C34468}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{552E3D84-A4B4-447B-BED5-F7D12293AA94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{552E3D84-A4B4-447B-BED5-F7D12293AA94}"/>
   </bookViews>
   <sheets>
     <sheet name="K=10" sheetId="1" r:id="rId1"/>
@@ -350,13 +350,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -780,7 +780,7 @@
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -879,7 +879,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>33</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
         <v>34</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="18"/>
       <c r="D5" s="6" t="s">
         <v>35</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
         <v>33</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
         <v>34</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="18"/>
       <c r="D9" s="6" t="s">
         <v>35</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="16" t="s">
         <v>37</v>
       </c>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="18"/>
       <c r="D13" s="6" t="s">
         <v>35</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2027,7 +2027,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="17"/>
       <c r="D15" s="3" t="s">
         <v>33</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="17"/>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="18"/>
       <c r="D17" s="6" t="s">
         <v>35</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="16" t="s">
         <v>36</v>
       </c>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="17"/>
       <c r="D19" s="3" t="s">
         <v>33</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="17"/>
       <c r="D20" s="3" t="s">
         <v>34</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="6" t="s">
         <v>35</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="16" t="s">
         <v>37</v>
       </c>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="17"/>
       <c r="D23" s="3" t="s">
         <v>33</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="17"/>
       <c r="D24" s="3" t="s">
         <v>34</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="18"/>
       <c r="D25" s="6" t="s">
         <v>35</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="17"/>
       <c r="D27" s="3" t="s">
         <v>33</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="17"/>
       <c r="D28" s="3" t="s">
         <v>34</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="18"/>
       <c r="D29" s="6" t="s">
         <v>35</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="16" t="s">
         <v>36</v>
       </c>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="17"/>
       <c r="D31" s="3" t="s">
         <v>33</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="17"/>
       <c r="D32" s="3" t="s">
         <v>34</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="18"/>
       <c r="D33" s="6" t="s">
         <v>35</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="16" t="s">
         <v>37</v>
       </c>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="17"/>
       <c r="D35" s="3" t="s">
         <v>33</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="17"/>
       <c r="D36" s="3" t="s">
         <v>34</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="18"/>
       <c r="D37" s="6" t="s">
         <v>35</v>
@@ -4226,7 +4226,7 @@
       <c r="A38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="16" t="s">
@@ -4325,7 +4325,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="17"/>
       <c r="D39" s="3" t="s">
         <v>33</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="17"/>
       <c r="D40" s="3" t="s">
         <v>34</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="18"/>
       <c r="D41" s="6" t="s">
         <v>35</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="16" t="s">
         <v>36</v>
       </c>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="17"/>
       <c r="D43" s="3" t="s">
         <v>33</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="17"/>
       <c r="D44" s="3" t="s">
         <v>34</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="18"/>
       <c r="D45" s="6" t="s">
         <v>35</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="16" t="s">
         <v>37</v>
       </c>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="17"/>
       <c r="D47" s="3" t="s">
         <v>33</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="17"/>
       <c r="D48" s="3" t="s">
         <v>34</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="18"/>
       <c r="D49" s="6" t="s">
         <v>35</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="16" t="s">
@@ -5473,7 +5473,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="17"/>
       <c r="D51" s="3" t="s">
         <v>33</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
-      <c r="B52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="17"/>
       <c r="D52" s="3" t="s">
         <v>34</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
-      <c r="B53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="18"/>
       <c r="D53" s="6" t="s">
         <v>35</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="16" t="s">
         <v>36</v>
       </c>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="17"/>
       <c r="D55" s="3" t="s">
         <v>33</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="17"/>
       <c r="D56" s="3" t="s">
         <v>34</v>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="18"/>
       <c r="D57" s="6" t="s">
         <v>35</v>
@@ -6140,7 +6140,7 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="16" t="s">
         <v>37</v>
       </c>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="17"/>
       <c r="D59" s="3" t="s">
         <v>33</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="17"/>
       <c r="D60" s="3" t="s">
         <v>34</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="18"/>
       <c r="D61" s="6" t="s">
         <v>35</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="16" t="s">
@@ -6621,7 +6621,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="17"/>
       <c r="D63" s="3" t="s">
         <v>33</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="17"/>
       <c r="D64" s="3" t="s">
         <v>34</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="18"/>
       <c r="D65" s="6" t="s">
         <v>35</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="16" t="s">
         <v>36</v>
       </c>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="17"/>
       <c r="D67" s="3" t="s">
         <v>33</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="17"/>
       <c r="D68" s="3" t="s">
         <v>34</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="18"/>
       <c r="D69" s="6" t="s">
         <v>35</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="16" t="s">
         <v>37</v>
       </c>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="17"/>
       <c r="D71" s="3" t="s">
         <v>33</v>
@@ -7480,7 +7480,7 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="17"/>
       <c r="D72" s="3" t="s">
         <v>34</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="18"/>
       <c r="D73" s="6" t="s">
         <v>35</v>
@@ -7672,7 +7672,7 @@
       <c r="A74" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -7771,7 +7771,7 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
-      <c r="B75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="17"/>
       <c r="D75" s="3" t="s">
         <v>33</v>
@@ -7866,7 +7866,7 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="17"/>
       <c r="D76" s="3" t="s">
         <v>34</v>
@@ -7961,7 +7961,7 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="18"/>
       <c r="D77" s="6" t="s">
         <v>35</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="16" t="s">
         <v>36</v>
       </c>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="17"/>
       <c r="D79" s="3" t="s">
         <v>33</v>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
-      <c r="B80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="17"/>
       <c r="D80" s="3" t="s">
         <v>34</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
-      <c r="B81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="18"/>
       <c r="D81" s="6" t="s">
         <v>35</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
-      <c r="B82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="16" t="s">
         <v>37</v>
       </c>
@@ -8535,7 +8535,7 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
-      <c r="B83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="17"/>
       <c r="D83" s="3" t="s">
         <v>33</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
-      <c r="B84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="17"/>
       <c r="D84" s="3" t="s">
         <v>34</v>
@@ -8725,7 +8725,7 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="18"/>
       <c r="D85" s="6" t="s">
         <v>35</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C86" s="16" t="s">
@@ -8919,7 +8919,7 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="17"/>
       <c r="D87" s="3" t="s">
         <v>33</v>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
-      <c r="B88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="17"/>
       <c r="D88" s="3" t="s">
         <v>34</v>
@@ -9109,7 +9109,7 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="18"/>
       <c r="D89" s="6" t="s">
         <v>35</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="16" t="s">
         <v>36</v>
       </c>
@@ -9301,7 +9301,7 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
-      <c r="B91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="17"/>
       <c r="D91" s="3" t="s">
         <v>33</v>
@@ -9396,7 +9396,7 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
-      <c r="B92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="17"/>
       <c r="D92" s="3" t="s">
         <v>34</v>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
-      <c r="B93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="18"/>
       <c r="D93" s="6" t="s">
         <v>35</v>
@@ -9586,7 +9586,7 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
-      <c r="B94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="16" t="s">
         <v>37</v>
       </c>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
-      <c r="B95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="17"/>
       <c r="D95" s="3" t="s">
         <v>33</v>
@@ -9778,7 +9778,7 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
-      <c r="B96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="17"/>
       <c r="D96" s="3" t="s">
         <v>34</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="18"/>
       <c r="D97" s="6" t="s">
         <v>35</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C98" s="16" t="s">
@@ -10067,7 +10067,7 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
-      <c r="B99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="17"/>
       <c r="D99" s="3" t="s">
         <v>33</v>
@@ -10162,7 +10162,7 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
-      <c r="B100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="17"/>
       <c r="D100" s="3" t="s">
         <v>34</v>
@@ -10257,7 +10257,7 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
-      <c r="B101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="18"/>
       <c r="D101" s="6" t="s">
         <v>35</v>
@@ -10352,7 +10352,7 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
-      <c r="B102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="16" t="s">
         <v>36</v>
       </c>
@@ -10449,7 +10449,7 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
-      <c r="B103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="17"/>
       <c r="D103" s="3" t="s">
         <v>33</v>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="17"/>
       <c r="D104" s="3" t="s">
         <v>34</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="18"/>
       <c r="D105" s="6" t="s">
         <v>35</v>
@@ -10734,7 +10734,7 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="16" t="s">
         <v>37</v>
       </c>
@@ -10831,7 +10831,7 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="17"/>
       <c r="D107" s="3" t="s">
         <v>33</v>
@@ -10926,7 +10926,7 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="17"/>
       <c r="D108" s="3" t="s">
         <v>34</v>
@@ -11021,7 +11021,7 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" s="18"/>
-      <c r="B109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="18"/>
       <c r="D109" s="6" t="s">
         <v>35</v>
@@ -11214,6 +11214,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A38:A73"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="C98:C101"/>
     <mergeCell ref="C102:C105"/>
     <mergeCell ref="C106:C109"/>
@@ -11227,32 +11253,6 @@
     <mergeCell ref="C90:C93"/>
     <mergeCell ref="C94:C97"/>
     <mergeCell ref="B98:B109"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="A38:A73"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11367,7 +11367,7 @@
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -11466,7 +11466,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>33</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
         <v>34</v>
@@ -11656,7 +11656,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="18"/>
       <c r="D5" s="6" t="s">
         <v>35</v>
@@ -11751,7 +11751,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
@@ -11848,7 +11848,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
         <v>33</v>
@@ -11943,7 +11943,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
         <v>34</v>
@@ -12038,7 +12038,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="18"/>
       <c r="D9" s="6" t="s">
         <v>35</v>
@@ -12133,7 +12133,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="16" t="s">
         <v>37</v>
       </c>
@@ -12230,7 +12230,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -12420,7 +12420,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="18"/>
       <c r="D13" s="6" t="s">
         <v>35</v>
@@ -12515,7 +12515,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -12614,7 +12614,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="17"/>
       <c r="D15" s="3" t="s">
         <v>33</v>
@@ -12709,7 +12709,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="17"/>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -12804,7 +12804,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="18"/>
       <c r="D17" s="6" t="s">
         <v>35</v>
@@ -12899,7 +12899,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="16" t="s">
         <v>36</v>
       </c>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="17"/>
       <c r="D19" s="3" t="s">
         <v>33</v>
@@ -13091,7 +13091,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="17"/>
       <c r="D20" s="3" t="s">
         <v>34</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="6" t="s">
         <v>35</v>
@@ -13281,7 +13281,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="16" t="s">
         <v>37</v>
       </c>
@@ -13378,7 +13378,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="17"/>
       <c r="D23" s="3" t="s">
         <v>33</v>
@@ -13473,7 +13473,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="17"/>
       <c r="D24" s="3" t="s">
         <v>34</v>
@@ -13568,7 +13568,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="18"/>
       <c r="D25" s="6" t="s">
         <v>35</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -13762,7 +13762,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="17"/>
       <c r="D27" s="3" t="s">
         <v>33</v>
@@ -13857,7 +13857,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="17"/>
       <c r="D28" s="3" t="s">
         <v>34</v>
@@ -13952,7 +13952,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="18"/>
       <c r="D29" s="6" t="s">
         <v>35</v>
@@ -14047,7 +14047,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="16" t="s">
         <v>36</v>
       </c>
@@ -14144,7 +14144,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="17"/>
       <c r="D31" s="3" t="s">
         <v>33</v>
@@ -14239,7 +14239,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="17"/>
       <c r="D32" s="3" t="s">
         <v>34</v>
@@ -14334,7 +14334,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="18"/>
       <c r="D33" s="6" t="s">
         <v>35</v>
@@ -14429,7 +14429,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="16" t="s">
         <v>37</v>
       </c>
@@ -14526,7 +14526,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="17"/>
       <c r="D35" s="3" t="s">
         <v>33</v>
@@ -14621,7 +14621,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="17"/>
       <c r="D36" s="3" t="s">
         <v>34</v>
@@ -14716,7 +14716,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="18"/>
       <c r="D37" s="6" t="s">
         <v>35</v>
@@ -14813,7 +14813,7 @@
       <c r="A38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="16" t="s">
@@ -14912,7 +14912,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="17"/>
       <c r="D39" s="3" t="s">
         <v>33</v>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="17"/>
       <c r="D40" s="3" t="s">
         <v>34</v>
@@ -15102,7 +15102,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="18"/>
       <c r="D41" s="6" t="s">
         <v>35</v>
@@ -15197,7 +15197,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="16" t="s">
         <v>36</v>
       </c>
@@ -15294,7 +15294,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="17"/>
       <c r="D43" s="3" t="s">
         <v>33</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="17"/>
       <c r="D44" s="3" t="s">
         <v>34</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="18"/>
       <c r="D45" s="6" t="s">
         <v>35</v>
@@ -15579,7 +15579,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="16" t="s">
         <v>37</v>
       </c>
@@ -15676,7 +15676,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="17"/>
       <c r="D47" s="3" t="s">
         <v>33</v>
@@ -15771,7 +15771,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="17"/>
       <c r="D48" s="3" t="s">
         <v>34</v>
@@ -15866,7 +15866,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="18"/>
       <c r="D49" s="6" t="s">
         <v>35</v>
@@ -15961,7 +15961,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="16" t="s">
@@ -16060,7 +16060,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="17"/>
       <c r="D51" s="3" t="s">
         <v>33</v>
@@ -16155,7 +16155,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
-      <c r="B52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="17"/>
       <c r="D52" s="3" t="s">
         <v>34</v>
@@ -16250,7 +16250,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
-      <c r="B53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="18"/>
       <c r="D53" s="6" t="s">
         <v>35</v>
@@ -16345,7 +16345,7 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="16" t="s">
         <v>36</v>
       </c>
@@ -16442,7 +16442,7 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="17"/>
       <c r="D55" s="3" t="s">
         <v>33</v>
@@ -16537,7 +16537,7 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="17"/>
       <c r="D56" s="3" t="s">
         <v>34</v>
@@ -16632,7 +16632,7 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="18"/>
       <c r="D57" s="6" t="s">
         <v>35</v>
@@ -16727,7 +16727,7 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="16" t="s">
         <v>37</v>
       </c>
@@ -16824,7 +16824,7 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="17"/>
       <c r="D59" s="3" t="s">
         <v>33</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="17"/>
       <c r="D60" s="3" t="s">
         <v>34</v>
@@ -17014,7 +17014,7 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="18"/>
       <c r="D61" s="6" t="s">
         <v>35</v>
@@ -17109,7 +17109,7 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="16" t="s">
@@ -17208,7 +17208,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="17"/>
       <c r="D63" s="3" t="s">
         <v>33</v>
@@ -17303,7 +17303,7 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="17"/>
       <c r="D64" s="3" t="s">
         <v>34</v>
@@ -17398,7 +17398,7 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="18"/>
       <c r="D65" s="6" t="s">
         <v>35</v>
@@ -17493,7 +17493,7 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="16" t="s">
         <v>36</v>
       </c>
@@ -17590,7 +17590,7 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="17"/>
       <c r="D67" s="3" t="s">
         <v>33</v>
@@ -17685,7 +17685,7 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="17"/>
       <c r="D68" s="3" t="s">
         <v>34</v>
@@ -17780,7 +17780,7 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="18"/>
       <c r="D69" s="6" t="s">
         <v>35</v>
@@ -17875,7 +17875,7 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="16" t="s">
         <v>37</v>
       </c>
@@ -17972,7 +17972,7 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="17"/>
       <c r="D71" s="3" t="s">
         <v>33</v>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="17"/>
       <c r="D72" s="3" t="s">
         <v>34</v>
@@ -18162,7 +18162,7 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="18"/>
       <c r="D73" s="6" t="s">
         <v>35</v>
@@ -18259,7 +18259,7 @@
       <c r="A74" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -18358,7 +18358,7 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
-      <c r="B75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="17"/>
       <c r="D75" s="3" t="s">
         <v>33</v>
@@ -18453,7 +18453,7 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="17"/>
       <c r="D76" s="3" t="s">
         <v>34</v>
@@ -18548,7 +18548,7 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="18"/>
       <c r="D77" s="6" t="s">
         <v>35</v>
@@ -18643,7 +18643,7 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="16" t="s">
         <v>36</v>
       </c>
@@ -18740,7 +18740,7 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="17"/>
       <c r="D79" s="3" t="s">
         <v>33</v>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
-      <c r="B80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="17"/>
       <c r="D80" s="3" t="s">
         <v>34</v>
@@ -18930,7 +18930,7 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
-      <c r="B81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="18"/>
       <c r="D81" s="6" t="s">
         <v>35</v>
@@ -19025,7 +19025,7 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
-      <c r="B82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="16" t="s">
         <v>37</v>
       </c>
@@ -19122,7 +19122,7 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
-      <c r="B83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="17"/>
       <c r="D83" s="3" t="s">
         <v>33</v>
@@ -19217,7 +19217,7 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
-      <c r="B84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="17"/>
       <c r="D84" s="3" t="s">
         <v>34</v>
@@ -19312,7 +19312,7 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="18"/>
       <c r="D85" s="6" t="s">
         <v>35</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C86" s="16" t="s">
@@ -19506,7 +19506,7 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="17"/>
       <c r="D87" s="3" t="s">
         <v>33</v>
@@ -19601,7 +19601,7 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
-      <c r="B88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="17"/>
       <c r="D88" s="3" t="s">
         <v>34</v>
@@ -19696,7 +19696,7 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="18"/>
       <c r="D89" s="6" t="s">
         <v>35</v>
@@ -19791,7 +19791,7 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="16" t="s">
         <v>36</v>
       </c>
@@ -19888,7 +19888,7 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
-      <c r="B91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="17"/>
       <c r="D91" s="3" t="s">
         <v>33</v>
@@ -19983,7 +19983,7 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
-      <c r="B92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="17"/>
       <c r="D92" s="3" t="s">
         <v>34</v>
@@ -20078,7 +20078,7 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
-      <c r="B93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="18"/>
       <c r="D93" s="6" t="s">
         <v>35</v>
@@ -20173,7 +20173,7 @@
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
-      <c r="B94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="16" t="s">
         <v>37</v>
       </c>
@@ -20270,7 +20270,7 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
-      <c r="B95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="17"/>
       <c r="D95" s="3" t="s">
         <v>33</v>
@@ -20365,7 +20365,7 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
-      <c r="B96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="17"/>
       <c r="D96" s="3" t="s">
         <v>34</v>
@@ -20460,7 +20460,7 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="18"/>
       <c r="D97" s="6" t="s">
         <v>35</v>
@@ -20555,7 +20555,7 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C98" s="16" t="s">
@@ -20654,7 +20654,7 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
-      <c r="B99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="17"/>
       <c r="D99" s="3" t="s">
         <v>33</v>
@@ -20749,7 +20749,7 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
-      <c r="B100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="17"/>
       <c r="D100" s="3" t="s">
         <v>34</v>
@@ -20844,7 +20844,7 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
-      <c r="B101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="18"/>
       <c r="D101" s="6" t="s">
         <v>35</v>
@@ -20939,7 +20939,7 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
-      <c r="B102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="16" t="s">
         <v>36</v>
       </c>
@@ -21036,7 +21036,7 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
-      <c r="B103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="17"/>
       <c r="D103" s="3" t="s">
         <v>33</v>
@@ -21131,7 +21131,7 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="17"/>
       <c r="D104" s="3" t="s">
         <v>34</v>
@@ -21226,7 +21226,7 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="18"/>
       <c r="D105" s="6" t="s">
         <v>35</v>
@@ -21321,7 +21321,7 @@
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="16" t="s">
         <v>37</v>
       </c>
@@ -21418,7 +21418,7 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="17"/>
       <c r="D107" s="3" t="s">
         <v>33</v>
@@ -21513,7 +21513,7 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="17"/>
       <c r="D108" s="3" t="s">
         <v>34</v>
@@ -21608,7 +21608,7 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" s="18"/>
-      <c r="B109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="18"/>
       <c r="D109" s="6" t="s">
         <v>35</v>
@@ -21801,6 +21801,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A38:A73"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="C98:C101"/>
     <mergeCell ref="C102:C105"/>
     <mergeCell ref="C106:C109"/>
@@ -21814,32 +21840,6 @@
     <mergeCell ref="C90:C93"/>
     <mergeCell ref="C94:C97"/>
     <mergeCell ref="B98:B109"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="A38:A73"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21849,8 +21849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B50BA1-EE21-42C2-9585-3464A8CF9F4B}">
   <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110:D112"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74:AG109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21954,7 +21954,7 @@
       <c r="A2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -22053,7 +22053,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="17"/>
       <c r="D3" s="3" t="s">
         <v>33</v>
@@ -22148,7 +22148,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
         <v>34</v>
@@ -22243,7 +22243,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="18"/>
       <c r="D5" s="6" t="s">
         <v>35</v>
@@ -22338,7 +22338,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
         <v>36</v>
       </c>
@@ -22435,7 +22435,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
         <v>33</v>
@@ -22530,7 +22530,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="17"/>
       <c r="D8" s="3" t="s">
         <v>34</v>
@@ -22625,7 +22625,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="18"/>
       <c r="D9" s="6" t="s">
         <v>35</v>
@@ -22720,7 +22720,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="16" t="s">
         <v>37</v>
       </c>
@@ -22817,7 +22817,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="17"/>
       <c r="D11" s="3" t="s">
         <v>33</v>
@@ -22912,7 +22912,7 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="17"/>
       <c r="D12" s="3" t="s">
         <v>34</v>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="18"/>
       <c r="D13" s="6" t="s">
         <v>35</v>
@@ -23102,7 +23102,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -23201,7 +23201,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="17"/>
       <c r="D15" s="3" t="s">
         <v>33</v>
@@ -23296,7 +23296,7 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="17"/>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -23391,7 +23391,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="18"/>
       <c r="D17" s="6" t="s">
         <v>35</v>
@@ -23486,7 +23486,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="16" t="s">
         <v>36</v>
       </c>
@@ -23583,7 +23583,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="17"/>
       <c r="D19" s="3" t="s">
         <v>33</v>
@@ -23678,7 +23678,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="17"/>
       <c r="D20" s="3" t="s">
         <v>34</v>
@@ -23773,7 +23773,7 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="6" t="s">
         <v>35</v>
@@ -23868,7 +23868,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="16" t="s">
         <v>37</v>
       </c>
@@ -23965,7 +23965,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="17"/>
       <c r="D23" s="3" t="s">
         <v>33</v>
@@ -24060,7 +24060,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="17"/>
       <c r="D24" s="3" t="s">
         <v>34</v>
@@ -24155,7 +24155,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="18"/>
       <c r="D25" s="6" t="s">
         <v>35</v>
@@ -24250,7 +24250,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -24349,7 +24349,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="17"/>
       <c r="D27" s="3" t="s">
         <v>33</v>
@@ -24444,7 +24444,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="17"/>
       <c r="D28" s="3" t="s">
         <v>34</v>
@@ -24539,7 +24539,7 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="18"/>
       <c r="D29" s="6" t="s">
         <v>35</v>
@@ -24634,7 +24634,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="16" t="s">
         <v>36</v>
       </c>
@@ -24731,7 +24731,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="17"/>
       <c r="D31" s="3" t="s">
         <v>33</v>
@@ -24826,7 +24826,7 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="17"/>
       <c r="D32" s="3" t="s">
         <v>34</v>
@@ -24921,7 +24921,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="18"/>
       <c r="D33" s="6" t="s">
         <v>35</v>
@@ -25016,7 +25016,7 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="16" t="s">
         <v>37</v>
       </c>
@@ -25113,7 +25113,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="17"/>
       <c r="D35" s="3" t="s">
         <v>33</v>
@@ -25208,7 +25208,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="17"/>
       <c r="D36" s="3" t="s">
         <v>34</v>
@@ -25303,7 +25303,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="18"/>
       <c r="D37" s="6" t="s">
         <v>35</v>
@@ -25400,7 +25400,7 @@
       <c r="A38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="16" t="s">
@@ -25499,7 +25499,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="17"/>
       <c r="D39" s="3" t="s">
         <v>33</v>
@@ -25594,7 +25594,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="17"/>
       <c r="D40" s="3" t="s">
         <v>34</v>
@@ -25689,7 +25689,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="18"/>
       <c r="D41" s="6" t="s">
         <v>35</v>
@@ -25784,7 +25784,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="16" t="s">
         <v>36</v>
       </c>
@@ -25881,7 +25881,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="17"/>
       <c r="D43" s="3" t="s">
         <v>33</v>
@@ -25976,7 +25976,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="17"/>
       <c r="D44" s="3" t="s">
         <v>34</v>
@@ -26071,102 +26071,102 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="18"/>
       <c r="D45" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E45" s="12">
-        <v>0.97299999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="F45" s="7">
-        <v>0.97199999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="G45" s="7">
-        <v>0.93200000000000005</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="H45" s="7">
-        <v>0.97199999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="I45" s="7">
-        <v>0.39600000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="J45" s="7">
-        <v>0.97499999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="K45" s="7">
-        <v>0.95499999999999996</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="L45" s="7">
-        <v>0.95599999999999996</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="M45" s="7">
-        <v>0.93300000000000005</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="N45" s="7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="O45" s="7">
-        <v>0.92400000000000004</v>
+        <v>0.96</v>
       </c>
       <c r="P45" s="7">
-        <v>0.95099999999999996</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="Q45" s="7">
-        <v>0.95099999999999996</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="R45" s="7">
-        <v>0.98099999999999998</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="S45" s="7">
-        <v>0.97699999999999998</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="T45" s="7">
-        <v>0.97799999999999998</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="U45" s="7">
-        <v>0.97799999999999998</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="V45" s="7">
-        <v>0.94499999999999995</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="W45" s="7">
-        <v>0.97699999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="X45" s="7">
-        <v>0.97699999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="Y45" s="7">
-        <v>0.95899999999999996</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="Z45" s="7">
-        <v>0.96299999999999997</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="AA45" s="7">
-        <v>0.91500000000000004</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="AB45" s="7">
-        <v>0.58499999999999996</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="AC45" s="7">
         <v>0</v>
       </c>
       <c r="AD45" s="7">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AE45" s="7">
-        <v>0.67500000000000004</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="AF45" s="7">
-        <v>0.72099999999999997</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="AG45" s="7">
-        <v>0.97199999999999998</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="16" t="s">
         <v>37</v>
       </c>
@@ -26263,7 +26263,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="17"/>
       <c r="D47" s="3" t="s">
         <v>33</v>
@@ -26358,7 +26358,7 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="17"/>
       <c r="D48" s="3" t="s">
         <v>34</v>
@@ -26453,7 +26453,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="18"/>
       <c r="D49" s="6" t="s">
         <v>35</v>
@@ -26548,7 +26548,7 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="16" t="s">
@@ -26647,7 +26647,7 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
-      <c r="B51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="17"/>
       <c r="D51" s="3" t="s">
         <v>33</v>
@@ -26742,7 +26742,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
-      <c r="B52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="17"/>
       <c r="D52" s="3" t="s">
         <v>34</v>
@@ -26837,7 +26837,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
-      <c r="B53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="18"/>
       <c r="D53" s="6" t="s">
         <v>35</v>
@@ -26932,7 +26932,7 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
-      <c r="B54" s="19"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="16" t="s">
         <v>36</v>
       </c>
@@ -27029,7 +27029,7 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="17"/>
       <c r="D55" s="3" t="s">
         <v>33</v>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
-      <c r="B56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="17"/>
       <c r="D56" s="3" t="s">
         <v>34</v>
@@ -27219,102 +27219,102 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
-      <c r="B57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="18"/>
       <c r="D57" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="12">
-        <v>0.80900000000000005</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="F57" s="7">
-        <v>0.80900000000000005</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="G57" s="7">
-        <v>0.72299999999999998</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="H57" s="7">
-        <v>0.80900000000000005</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="I57" s="7">
-        <v>0.81299999999999994</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="J57" s="7">
-        <v>0.80100000000000005</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="K57" s="7">
-        <v>1</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="L57" s="7">
-        <v>0.749</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="M57" s="7">
-        <v>0.77900000000000003</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="N57" s="7">
-        <v>0.64800000000000002</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="O57" s="7">
-        <v>0.77100000000000002</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="P57" s="7">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="Q57" s="7">
-        <v>0.748</v>
+        <v>0.82</v>
       </c>
       <c r="R57" s="7">
-        <v>0.78400000000000003</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="S57" s="7">
-        <v>0.79200000000000004</v>
+        <v>0.879</v>
       </c>
       <c r="T57" s="7">
-        <v>0.78400000000000003</v>
+        <v>0.89</v>
       </c>
       <c r="U57" s="7">
-        <v>0.79</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="V57" s="7">
-        <v>0.79800000000000004</v>
+        <v>0.86</v>
       </c>
       <c r="W57" s="7">
-        <v>0.79900000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="X57" s="7">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="Y57" s="7">
-        <v>1</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="Z57" s="7">
-        <v>0.749</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="AA57" s="7">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AB57" s="7">
-        <v>2.5999999999999999E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="AC57" s="7">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AD57" s="7">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="7">
-        <v>0.496</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="AF57" s="7">
-        <v>0.53800000000000003</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="AG57" s="7">
-        <v>0.80600000000000005</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
-      <c r="B58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="16" t="s">
         <v>37</v>
       </c>
@@ -27411,7 +27411,7 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="17"/>
       <c r="D59" s="3" t="s">
         <v>33</v>
@@ -27506,7 +27506,7 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
-      <c r="B60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="17"/>
       <c r="D60" s="3" t="s">
         <v>34</v>
@@ -27601,7 +27601,7 @@
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="18"/>
       <c r="D61" s="6" t="s">
         <v>35</v>
@@ -27696,7 +27696,7 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C62" s="16" t="s">
@@ -27795,7 +27795,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="17"/>
       <c r="D63" s="3" t="s">
         <v>33</v>
@@ -27890,7 +27890,7 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="17"/>
       <c r="D64" s="3" t="s">
         <v>34</v>
@@ -27985,7 +27985,7 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="18"/>
       <c r="D65" s="6" t="s">
         <v>35</v>
@@ -28080,7 +28080,7 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="16" t="s">
         <v>36</v>
       </c>
@@ -28177,7 +28177,7 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="17"/>
       <c r="D67" s="3" t="s">
         <v>33</v>
@@ -28272,7 +28272,7 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="17"/>
       <c r="D68" s="3" t="s">
         <v>34</v>
@@ -28367,70 +28367,70 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="18"/>
       <c r="D69" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E69" s="12">
-        <v>0.53300000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="F69" s="7">
-        <v>0.53200000000000003</v>
+        <v>0.61</v>
       </c>
       <c r="G69" s="7">
-        <v>0.40799999999999997</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="H69" s="7">
-        <v>0.53100000000000003</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="I69" s="7">
-        <v>0.52400000000000002</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="J69" s="7">
-        <v>0.54100000000000004</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="K69" s="7">
         <v>1</v>
       </c>
       <c r="L69" s="7">
-        <v>0.42699999999999999</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="M69" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="N69" s="7">
-        <v>2.4E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="O69" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="P69" s="7">
-        <v>0.55500000000000005</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="Q69" s="7">
-        <v>0.55600000000000005</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="R69" s="7">
-        <v>0.42599999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="S69" s="7">
-        <v>0.438</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="T69" s="7">
-        <v>0.42899999999999999</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="U69" s="7">
-        <v>0.42899999999999999</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="V69" s="7">
-        <v>0.60399999999999998</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="W69" s="7">
-        <v>0.501</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="X69" s="7">
-        <v>0.502</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="Y69" s="7">
         <v>1</v>
@@ -28439,30 +28439,30 @@
         <v>1</v>
       </c>
       <c r="AA69" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AB69" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="AC69" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AD69" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="AE69" s="7">
-        <v>0.22700000000000001</v>
+        <v>0.247</v>
       </c>
       <c r="AF69" s="7">
-        <v>0.3</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="AG69" s="7">
-        <v>0.52800000000000002</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="16" t="s">
         <v>37</v>
       </c>
@@ -28559,7 +28559,7 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="17"/>
       <c r="D71" s="3" t="s">
         <v>33</v>
@@ -28654,7 +28654,7 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72" s="17"/>
-      <c r="B72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="17"/>
       <c r="D72" s="3" t="s">
         <v>34</v>
@@ -28749,7 +28749,7 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="18"/>
       <c r="D73" s="6" t="s">
         <v>35</v>
@@ -28846,7 +28846,7 @@
       <c r="A74" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -28945,7 +28945,7 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
-      <c r="B75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="17"/>
       <c r="D75" s="3" t="s">
         <v>33</v>
@@ -29040,7 +29040,7 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
-      <c r="B76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="17"/>
       <c r="D76" s="3" t="s">
         <v>34</v>
@@ -29135,7 +29135,7 @@
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="18"/>
       <c r="D77" s="6" t="s">
         <v>35</v>
@@ -29230,7 +29230,7 @@
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="16" t="s">
         <v>36</v>
       </c>
@@ -29327,7 +29327,7 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="17"/>
       <c r="D79" s="3" t="s">
         <v>33</v>
@@ -29422,7 +29422,7 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
-      <c r="B80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="17"/>
       <c r="D80" s="3" t="s">
         <v>34</v>
@@ -29517,102 +29517,102 @@
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
-      <c r="B81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="18"/>
       <c r="D81" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E81" s="12">
-        <v>0.504</v>
+        <v>0.751</v>
       </c>
       <c r="F81" s="7">
-        <v>0.50600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G81" s="7">
-        <v>0.39300000000000002</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="H81" s="7">
-        <v>0.504</v>
+        <v>0.751</v>
       </c>
       <c r="I81" s="7">
-        <v>0.51800000000000002</v>
+        <v>0.751</v>
       </c>
       <c r="J81" s="7">
-        <v>0.502</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="K81" s="7">
-        <v>1</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="L81" s="7">
-        <v>0.49199999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="M81" s="7">
-        <v>0.55200000000000005</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="N81" s="7">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="R81" s="7">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="S81" s="7">
+        <v>0.748</v>
+      </c>
+      <c r="T81" s="7">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="U81" s="7">
+        <v>0.745</v>
+      </c>
+      <c r="V81" s="7">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="W81" s="7">
         <v>0.749</v>
       </c>
-      <c r="O81" s="7">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="P81" s="7">
-        <v>0.503</v>
-      </c>
-      <c r="Q81" s="7">
-        <v>0.505</v>
-      </c>
-      <c r="R81" s="7">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="S81" s="7">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="T81" s="7">
-        <v>0.373</v>
-      </c>
-      <c r="U81" s="7">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="V81" s="7">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="W81" s="7">
-        <v>0.47699999999999998</v>
-      </c>
       <c r="X81" s="7">
-        <v>0.47499999999999998</v>
+        <v>0.749</v>
       </c>
       <c r="Y81" s="7">
-        <v>1</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="Z81" s="7">
-        <v>1</v>
+        <v>0.746</v>
       </c>
       <c r="AA81" s="7">
-        <v>0.56000000000000005</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="AB81" s="7">
-        <v>2E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AC81" s="7">
         <v>0</v>
       </c>
       <c r="AD81" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AE81" s="7">
-        <v>0.23799999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="AF81" s="7">
-        <v>0.22800000000000001</v>
+        <v>0.374</v>
       </c>
       <c r="AG81" s="7">
-        <v>0.52100000000000002</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
-      <c r="B82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="16" t="s">
         <v>37</v>
       </c>
@@ -29709,7 +29709,7 @@
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
-      <c r="B83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="17"/>
       <c r="D83" s="3" t="s">
         <v>33</v>
@@ -29804,7 +29804,7 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
-      <c r="B84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="17"/>
       <c r="D84" s="3" t="s">
         <v>34</v>
@@ -29899,7 +29899,7 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="18"/>
       <c r="D85" s="6" t="s">
         <v>35</v>
@@ -29994,7 +29994,7 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86" s="17"/>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C86" s="16" t="s">
@@ -30093,7 +30093,7 @@
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
-      <c r="B87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="17"/>
       <c r="D87" s="3" t="s">
         <v>33</v>
@@ -30188,7 +30188,7 @@
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
-      <c r="B88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="17"/>
       <c r="D88" s="3" t="s">
         <v>34</v>
@@ -30283,7 +30283,7 @@
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="18"/>
       <c r="D89" s="6" t="s">
         <v>35</v>
@@ -30378,7 +30378,7 @@
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="16" t="s">
         <v>36</v>
       </c>
@@ -30475,7 +30475,7 @@
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
-      <c r="B91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="17"/>
       <c r="D91" s="3" t="s">
         <v>33</v>
@@ -30570,7 +30570,7 @@
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
-      <c r="B92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="17"/>
       <c r="D92" s="3" t="s">
         <v>34</v>
@@ -30665,102 +30665,102 @@
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
-      <c r="B93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="18"/>
       <c r="D93" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E93" s="12">
-        <v>0.81799999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="F93" s="7">
-        <v>0.81799999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="G93" s="7">
-        <v>0.72499999999999998</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="H93" s="7">
-        <v>0.81799999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="I93" s="7">
-        <v>0.80900000000000005</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="J93" s="7">
-        <v>0.82399999999999995</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="K93" s="7">
-        <v>0.77300000000000002</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="L93" s="7">
-        <v>0.77200000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="M93" s="7">
-        <v>0.82899999999999996</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="N93" s="7">
-        <v>0.51500000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="O93" s="7">
-        <v>0.82699999999999996</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="P93" s="7">
-        <v>0.76500000000000001</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="Q93" s="7">
-        <v>0.76500000000000001</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="R93" s="7">
-        <v>0.80500000000000005</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="S93" s="7">
-        <v>0.82299999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="T93" s="7">
-        <v>0.80600000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="U93" s="7">
-        <v>0.80700000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="V93" s="7">
-        <v>0.84499999999999997</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="W93" s="7">
-        <v>0.82</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="X93" s="7">
-        <v>0.82</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="Y93" s="7">
-        <v>0.77300000000000002</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="Z93" s="7">
-        <v>0.78300000000000003</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="AA93" s="7">
-        <v>0.77700000000000002</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="AB93" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>0.41</v>
       </c>
       <c r="AC93" s="7">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AD93" s="7">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AE93" s="7">
-        <v>0.502</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="AF93" s="7">
-        <v>0.51600000000000001</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="AG93" s="7">
-        <v>0.82399999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
-      <c r="B94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="16" t="s">
         <v>37</v>
       </c>
@@ -30857,7 +30857,7 @@
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
-      <c r="B95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="17"/>
       <c r="D95" s="3" t="s">
         <v>33</v>
@@ -30952,7 +30952,7 @@
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
-      <c r="B96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="17"/>
       <c r="D96" s="3" t="s">
         <v>34</v>
@@ -31047,7 +31047,7 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97" s="17"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="18"/>
       <c r="D97" s="6" t="s">
         <v>35</v>
@@ -31142,7 +31142,7 @@
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C98" s="16" t="s">
@@ -31241,7 +31241,7 @@
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99" s="17"/>
-      <c r="B99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="17"/>
       <c r="D99" s="3" t="s">
         <v>33</v>
@@ -31336,7 +31336,7 @@
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
-      <c r="B100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="17"/>
       <c r="D100" s="3" t="s">
         <v>34</v>
@@ -31431,7 +31431,7 @@
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
-      <c r="B101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="18"/>
       <c r="D101" s="6" t="s">
         <v>35</v>
@@ -31526,7 +31526,7 @@
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102" s="17"/>
-      <c r="B102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="16" t="s">
         <v>36</v>
       </c>
@@ -31623,7 +31623,7 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
-      <c r="B103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="17"/>
       <c r="D103" s="3" t="s">
         <v>33</v>
@@ -31718,7 +31718,7 @@
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
-      <c r="B104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="17"/>
       <c r="D104" s="3" t="s">
         <v>34</v>
@@ -31813,102 +31813,102 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
-      <c r="B105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="18"/>
       <c r="D105" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E105" s="12">
-        <v>0.97</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F105" s="7">
-        <v>0.97</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="G105" s="7">
-        <v>0.92300000000000004</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="H105" s="7">
-        <v>0.97</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="I105" s="7">
-        <v>0.374</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="J105" s="7">
-        <v>0.97199999999999998</v>
+        <v>0.995</v>
       </c>
       <c r="K105" s="7">
-        <v>0.96099999999999997</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="L105" s="7">
-        <v>0.96199999999999997</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="M105" s="7">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="N105" s="7">
-        <v>0.73299999999999998</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="O105" s="7">
-        <v>0.93400000000000005</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="P105" s="7">
-        <v>0.95499999999999996</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="Q105" s="7">
-        <v>0.95399999999999996</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="R105" s="7">
-        <v>0.97</v>
+        <v>0.995</v>
       </c>
       <c r="S105" s="7">
-        <v>0.96499999999999997</v>
+        <v>0.995</v>
       </c>
       <c r="T105" s="7">
-        <v>0.97</v>
+        <v>0.995</v>
       </c>
       <c r="U105" s="7">
-        <v>0.96899999999999997</v>
+        <v>0.996</v>
       </c>
       <c r="V105" s="7">
-        <v>0.96199999999999997</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="W105" s="7">
-        <v>0.97</v>
+        <v>0.996</v>
       </c>
       <c r="X105" s="7">
-        <v>0.97</v>
+        <v>0.996</v>
       </c>
       <c r="Y105" s="7">
-        <v>0.96199999999999997</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="Z105" s="7">
-        <v>0.96199999999999997</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="AA105" s="7">
-        <v>0.92300000000000004</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="AB105" s="7">
-        <v>0.624</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="AC105" s="7">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AD105" s="7">
-        <v>0</v>
+        <v>0.156</v>
       </c>
       <c r="AE105" s="7">
-        <v>0.67800000000000005</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="AF105" s="7">
-        <v>0.746</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="AG105" s="7">
-        <v>0.96799999999999997</v>
+        <v>0.98899999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="16" t="s">
         <v>37</v>
       </c>
@@ -32005,7 +32005,7 @@
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107" s="17"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="17"/>
       <c r="D107" s="3" t="s">
         <v>33</v>
@@ -32100,7 +32100,7 @@
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="17"/>
       <c r="D108" s="3" t="s">
         <v>34</v>
@@ -32195,7 +32195,7 @@
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109" s="18"/>
-      <c r="B109" s="20"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="18"/>
       <c r="D109" s="6" t="s">
         <v>35</v>
@@ -32388,6 +32388,32 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A38:A73"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="C98:C101"/>
     <mergeCell ref="C102:C105"/>
     <mergeCell ref="C106:C109"/>
@@ -32401,32 +32427,6 @@
     <mergeCell ref="C90:C93"/>
     <mergeCell ref="C94:C97"/>
     <mergeCell ref="B98:B109"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="A38:A73"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
